--- a/GDP_constant_2005.xlsx
+++ b/GDP_constant_2005.xlsx
@@ -484,7 +484,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -532,6 +532,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -831,11 +832,11 @@
   <dimension ref="A1:CM44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="IL23" sqref="IL23"/>
       <selection pane="topRight" activeCell="IL23" sqref="IL23"/>
       <selection pane="bottomLeft" activeCell="IL23" sqref="IL23"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="AO18" sqref="A18:AO18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5553,6 +5554,9 @@
     </row>
     <row r="18" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
+      <c r="AE18" s="25"/>
+      <c r="AJ18" s="25"/>
+      <c r="AO18" s="25"/>
     </row>
     <row r="19" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
@@ -5570,10 +5574,7 @@
       <c r="BX20" s="16"/>
       <c r="CC20" s="16"/>
       <c r="CH20" s="16"/>
-      <c r="CL20" s="24">
-        <f>CM17/CH17-1</f>
-        <v>1.7680717779958499E-2</v>
-      </c>
+      <c r="CL20" s="24"/>
       <c r="CM20" s="16"/>
     </row>
     <row r="25" spans="1:91" x14ac:dyDescent="0.2">
